--- a/src/test/resources/template/读取的数据模板.xlsx
+++ b/src/test/resources/template/读取的数据模板.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3 (2)" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +93,18 @@
   </si>
   <si>
     <t>王五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王五01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -223,13 +236,13 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -536,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -554,7 +567,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -565,7 +578,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -582,6 +595,68 @@
       </c>
       <c r="C4">
         <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -593,7 +668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
@@ -604,20 +679,20 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
       <c r="I1" s="4" t="s">
         <v>2</v>
       </c>
@@ -627,17 +702,17 @@
       <c r="M1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="7" t="s">
         <v>8</v>
       </c>
@@ -650,22 +725,22 @@
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="4"/>
@@ -676,210 +751,210 @@
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="L2:N3"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:H2"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="I2:K3"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="L2:N3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -887,7 +962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/template/读取的数据模板.xlsx
+++ b/src/test/resources/template/读取的数据模板.xlsx
@@ -4,13 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3 (2)" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId1"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3 (2)" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="34">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,12 +110,55 @@
   <si>
     <t>李四01</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>学生名1称</t>
+  </si>
+  <si>
+    <t>学生年龄</t>
+  </si>
+  <si>
+    <t>是否开放</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>恶魔001</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>恶魔002</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>恶魔005</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>生日</t>
+  </si>
+  <si>
+    <t>成功了吗?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm\-dd\ hh:mm\-ss"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,12 +175,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -234,10 +296,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -261,12 +334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -547,6 +615,392 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="17">
+        <v>44420.95579861111</v>
+      </c>
+      <c r="F3" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="17">
+        <v>44420.95579861111</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D4">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="21.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="5">
+        <v>44420.837372685186</v>
+      </c>
+      <c r="F3" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="5">
+        <v>44420.837314814817</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D4">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="4">
+        <v>44418.943414351852</v>
+      </c>
+      <c r="F3" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="4">
+        <v>44418.943414351852</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D4">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D4">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -567,7 +1021,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -578,7 +1032,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
+      <c r="A3" s="7"/>
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -607,11 +1061,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -629,7 +1083,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="7">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -640,7 +1094,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
+      <c r="A3" s="7"/>
       <c r="B3" t="s">
         <v>19</v>
       </c>
@@ -668,7 +1122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
@@ -679,55 +1133,55 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="10" t="s">
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2"/>
+      <c r="N1" s="7"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="7" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10" t="s">
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
@@ -743,12 +1197,12 @@
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -962,7 +1416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/template/读取的数据模板.xlsx
+++ b/src/test/resources/template/读取的数据模板.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet7" sheetId="8" r:id="rId1"/>
-    <sheet name="Sheet6" sheetId="7" r:id="rId2"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet3 (2)" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId8"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId1"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId2"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3 (2)" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="62">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +150,90 @@
   </si>
   <si>
     <t>成功了吗?</t>
+  </si>
+  <si>
+    <t>学生编号</t>
+  </si>
+  <si>
+    <t>学生姓名</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>创建的毫秒值</t>
+  </si>
+  <si>
+    <t>生日日期</t>
+  </si>
+  <si>
+    <t>是否公开</t>
+  </si>
+  <si>
+    <t>省份名称</t>
+  </si>
+  <si>
+    <t>市区名称</t>
+  </si>
+  <si>
+    <t>区县名称</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>北京市</t>
+  </si>
+  <si>
+    <t>朝阳区</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>赵四</t>
+  </si>
+  <si>
+    <t>东城区</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>王五</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>小白</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>李四</t>
+  </si>
+  <si>
+    <t>郑州市</t>
   </si>
 </sst>
 </file>
@@ -175,7 +260,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,6 +280,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
   </fills>
@@ -296,13 +391,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -334,7 +430,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -615,100 +712,245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F4"/>
+      <selection sqref="A1:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="5" width="29.625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="18">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1629013032709</v>
+      </c>
+      <c r="E2" s="5">
+        <v>44423.650833333333</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="19">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1629013034223</v>
+      </c>
+      <c r="E3" s="5">
+        <v>44423.650856481479</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="18">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1629013034223</v>
+      </c>
+      <c r="E4" s="5">
+        <v>44423.650856481479</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="19">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1629013034223</v>
+      </c>
+      <c r="E5" s="5">
+        <v>44423.650856481479</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="19">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="4">
-        <v>21</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="D6" s="4">
+        <v>1629013034223</v>
+      </c>
+      <c r="E6" s="5">
+        <v>44423.650856481479</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="4">
-        <v>23</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="17">
-        <v>44420.95579861111</v>
-      </c>
-      <c r="F3" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="4">
-        <v>29</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="17">
-        <v>44420.95579861111</v>
-      </c>
-      <c r="F4" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A3"/>
+  <mergeCells count="7">
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F6">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -721,12 +963,12 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -750,7 +992,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -768,7 +1010,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -780,8 +1022,8 @@
       <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="5">
-        <v>44420.837372685186</v>
+      <c r="E3" s="6">
+        <v>44420.95579861111</v>
       </c>
       <c r="F3" s="4" t="b">
         <v>1</v>
@@ -800,8 +1042,8 @@
       <c r="D4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="5">
-        <v>44420.837314814817</v>
+      <c r="E4" s="6">
+        <v>44420.95579861111</v>
       </c>
       <c r="F4" s="4"/>
     </row>
@@ -824,10 +1066,13 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="21.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
@@ -850,7 +1095,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -868,7 +1113,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -880,8 +1125,8 @@
       <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="4">
-        <v>44418.943414351852</v>
+      <c r="E3" s="5">
+        <v>44420.837372685186</v>
       </c>
       <c r="F3" s="4" t="b">
         <v>1</v>
@@ -900,8 +1145,8 @@
       <c r="D4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="4">
-        <v>44418.943414351852</v>
+      <c r="E4" s="5">
+        <v>44420.837314814817</v>
       </c>
       <c r="F4" s="4"/>
     </row>
@@ -921,15 +1166,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -942,9 +1187,15 @@
       <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -954,11 +1205,15 @@
         <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -970,8 +1225,14 @@
       <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="4">
+        <v>44418.943414351852</v>
+      </c>
+      <c r="F3" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
@@ -984,6 +1245,10 @@
       <c r="D4" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="E4" s="4">
+        <v>44418.943414351852</v>
+      </c>
+      <c r="F4" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1001,6 +1266,86 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D4">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1021,7 +1366,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1032,7 +1377,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -1061,7 +1406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1083,7 +1428,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="8">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -1094,7 +1439,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" t="s">
         <v>19</v>
       </c>
@@ -1122,7 +1467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
@@ -1133,55 +1478,55 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="8" t="s">
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="7"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="14" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="8" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1197,12 +1542,12 @@
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -1416,7 +1761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/template/读取的数据模板.xlsx
+++ b/src/test/resources/template/读取的数据模板.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,61 +179,7 @@
     <t>区县名称</t>
   </si>
   <si>
-    <t>p1</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>p3</t>
-  </si>
-  <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>北京市</t>
-  </si>
-  <si>
-    <t>朝阳区</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>赵四</t>
-  </si>
-  <si>
-    <t>东城区</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>王五</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>小白</t>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>李四</t>
-  </si>
-  <si>
-    <t>郑州市</t>
+    <t>是否成功</t>
   </si>
 </sst>
 </file>
@@ -260,7 +206,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,16 +226,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="53"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="14"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
       </patternFill>
     </fill>
   </fills>
@@ -391,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -430,8 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -712,248 +647,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L6"/>
+      <selection sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="18">
-        <v>25</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1629013032709</v>
-      </c>
-      <c r="E2" s="5">
-        <v>44423.650833333333</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="18">
+        <v>44437.726226851853</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="19">
-        <v>22</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1629013034223</v>
-      </c>
-      <c r="E3" s="5">
-        <v>44423.650856481479</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="18">
-        <v>25</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1629013034223</v>
-      </c>
-      <c r="E4" s="5">
-        <v>44423.650856481479</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="19">
-        <v>23</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1629013034223</v>
-      </c>
-      <c r="E5" s="5">
-        <v>44423.650856481479</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="19">
-        <v>21</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1629013034223</v>
-      </c>
-      <c r="E6" s="5">
-        <v>44423.650856481479</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>53</v>
+      <c r="K4" s="18">
+        <v>44437.726226851853</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F6">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
